--- a/Report_python.xlsx
+++ b/Report_python.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hossenbuxs\Desktop\JOB\vinted\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="data_daily" sheetId="1" r:id="rId1"/>
     <sheet name="data_group_unsold" sheetId="2" r:id="rId2"/>
-    <sheet name="summary_stats" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>number of additions</t>
   </si>
@@ -315,121 +309,16 @@
   </si>
   <si>
     <t>nan</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>sum</t>
-  </si>
-  <si>
-    <t>std</t>
-  </si>
-  <si>
-    <t>var</t>
-  </si>
-  <si>
-    <t>country_code</t>
-  </si>
-  <si>
-    <t>listing_quality_string</t>
-  </si>
-  <si>
-    <t>listings_in_first_7days_detailed</t>
-  </si>
-  <si>
-    <t>brand_is_verified</t>
-  </si>
-  <si>
-    <t>listing_platform</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>Long description</t>
-  </si>
-  <si>
-    <t>Long description, More than 2 photos</t>
-  </si>
-  <si>
-    <t>More than 2 photos</t>
-  </si>
-  <si>
-    <t>a. Didn't list over first 7d</t>
-  </si>
-  <si>
-    <t>b. 1 listing</t>
-  </si>
-  <si>
-    <t>c. 2-5 listings</t>
-  </si>
-  <si>
-    <t>d. 6-10 listings</t>
-  </si>
-  <si>
-    <t>e. 11-20 listings</t>
-  </si>
-  <si>
-    <t>f. 21-50 listings</t>
-  </si>
-  <si>
-    <t>g. 51-100 listings</t>
-  </si>
-  <si>
-    <t>h. 101-500 listings</t>
-  </si>
-  <si>
-    <t>i. 500+ listings</t>
-  </si>
-  <si>
-    <t>android</t>
-  </si>
-  <si>
-    <t>iphone</t>
-  </si>
-  <si>
-    <t>web (desktop or other)</t>
-  </si>
-  <si>
-    <t>a. New with tags</t>
-  </si>
-  <si>
-    <t>b. New</t>
-  </si>
-  <si>
-    <t>c. Mint</t>
-  </si>
-  <si>
-    <t>d. Very good</t>
-  </si>
-  <si>
-    <t>e. Good</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,15 +370,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -498,14 +384,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -552,7 +430,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -584,10 +462,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -619,7 +496,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -795,21 +671,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="1" max="1" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -820,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>43677</v>
       </c>
@@ -831,7 +700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>43678</v>
       </c>
@@ -842,7 +711,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>43679</v>
       </c>
@@ -853,7 +722,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>43680</v>
       </c>
@@ -864,7 +733,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>43681</v>
       </c>
@@ -875,7 +744,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>43682</v>
       </c>
@@ -886,7 +755,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>43683</v>
       </c>
@@ -897,7 +766,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>43684</v>
       </c>
@@ -908,7 +777,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>43685</v>
       </c>
@@ -919,7 +788,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>43686</v>
       </c>
@@ -930,7 +799,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>43687</v>
       </c>
@@ -941,7 +810,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>43688</v>
       </c>
@@ -952,7 +821,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>43689</v>
       </c>
@@ -963,7 +832,7 @@
         <v>3189</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>43690</v>
       </c>
@@ -974,7 +843,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>43691</v>
       </c>
@@ -985,7 +854,7 @@
         <v>3007</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>43692</v>
       </c>
@@ -996,7 +865,7 @@
         <v>3711</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>43693</v>
       </c>
@@ -1007,7 +876,7 @@
         <v>3330</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>43694</v>
       </c>
@@ -1018,7 +887,7 @@
         <v>3456</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>43695</v>
       </c>
@@ -1029,7 +898,7 @@
         <v>4484</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>43696</v>
       </c>
@@ -1040,7 +909,7 @@
         <v>4308</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>43697</v>
       </c>
@@ -1051,7 +920,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>43698</v>
       </c>
@@ -1062,7 +931,7 @@
         <v>4546</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>43699</v>
       </c>
@@ -1073,7 +942,7 @@
         <v>4328</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>43700</v>
       </c>
@@ -1084,7 +953,7 @@
         <v>3824</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>43701</v>
       </c>
@@ -1095,7 +964,7 @@
         <v>3555</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>43702</v>
       </c>
@@ -1106,7 +975,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>43703</v>
       </c>
@@ -1117,7 +986,7 @@
         <v>4623</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>43704</v>
       </c>
@@ -1128,7 +997,7 @@
         <v>4240</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>43705</v>
       </c>
@@ -1139,7 +1008,7 @@
         <v>4919</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>43706</v>
       </c>
@@ -1150,7 +1019,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:3">
       <c r="A32" s="2">
         <v>43707</v>
       </c>
@@ -1161,7 +1030,7 @@
         <v>3733</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>43708</v>
       </c>
@@ -1178,20 +1047,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="1" max="1" width="2.6796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.2265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6796875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1202,7 +1065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1213,10 +1076,10 @@
         <v>50159</v>
       </c>
       <c r="D2">
-        <v>9.0622973092606749</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
+        <v>9.062297309260675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1227,10 +1090,10 @@
         <v>13488</v>
       </c>
       <c r="D3">
-        <v>2.4368959928887728</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+        <v>2.436895992888773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1244,7 +1107,7 @@
         <v>0.5022665228522234</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1255,10 +1118,10 @@
         <v>2406</v>
       </c>
       <c r="D5">
-        <v>0.43469541510160048</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.4346954151016005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1269,10 +1132,10 @@
         <v>2288</v>
       </c>
       <c r="D6">
-        <v>0.41337618859204572</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.4133761885920457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1283,10 +1146,10 @@
         <v>2179</v>
       </c>
       <c r="D7">
-        <v>0.39368300478237228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.3936830047823723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1297,10 +1160,10 @@
         <v>1955</v>
       </c>
       <c r="D8">
-        <v>0.35321260869643772</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.3532126086964377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1314,7 +1177,7 @@
         <v>0.3235824972763785</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1325,10 +1188,10 @@
         <v>1773</v>
       </c>
       <c r="D10">
-        <v>0.32033041187661587</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.3203304118766159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1339,10 +1202,10 @@
         <v>1628</v>
       </c>
       <c r="D11">
-        <v>0.29413305726741718</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.2941330572674172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1356,7 +1219,7 @@
         <v>0.2836541154237377</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1367,10 +1230,10 @@
         <v>1530</v>
       </c>
       <c r="D13">
-        <v>0.27642725897982079</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.2764272589798208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1384,7 +1247,7 @@
         <v>1.612311672637857</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1395,10 +1258,10 @@
         <v>1454</v>
       </c>
       <c r="D15">
-        <v>0.26269623173637868</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.2626962317363787</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1409,10 +1272,10 @@
         <v>1483</v>
       </c>
       <c r="D16">
-        <v>0.26793570265821848</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.2679357026582185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1426,7 +1289,7 @@
         <v>0.2247552354058151</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1440,7 +1303,7 @@
         <v>0.2184317360173878</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1454,7 +1317,7 @@
         <v>0.2043393659517499</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1468,7 +1331,7 @@
         <v>0.1978351951522247</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1479,10 +1342,10 @@
         <v>1089</v>
       </c>
       <c r="D21">
-        <v>0.19675116668563719</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.1967511666856372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,10 +1356,10 @@
         <v>1054</v>
       </c>
       <c r="D22">
-        <v>0.19042766729720989</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.1904276672972099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1507,10 +1370,10 @@
         <v>982</v>
       </c>
       <c r="D23">
-        <v>0.17741932569815949</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.1774193256981595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1521,10 +1384,10 @@
         <v>919</v>
       </c>
       <c r="D24">
-        <v>0.16603702679899041</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.1660370267989904</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1538,7 +1401,7 @@
         <v>1.149973531638274</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1552,7 +1415,7 @@
         <v>0.1781420113425512</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1566,7 +1429,7 @@
         <v>0.1651336697435008</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1577,10 +1440,10 @@
         <v>890</v>
       </c>
       <c r="D28">
-        <v>0.16079755587715069</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.1607975558771507</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1591,10 +1454,10 @@
         <v>852</v>
       </c>
       <c r="D29">
-        <v>0.15393204225542961</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.1539320422554296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1605,10 +1468,10 @@
         <v>856</v>
       </c>
       <c r="D30">
-        <v>0.15465472789982129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.1546547278998213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1619,10 +1482,10 @@
         <v>847</v>
       </c>
       <c r="D31">
-        <v>0.15302868519994001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.15302868519994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1633,10 +1496,10 @@
         <v>779</v>
       </c>
       <c r="D32">
-        <v>0.14074302924528129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.1407430292452813</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1647,10 +1510,10 @@
         <v>812</v>
       </c>
       <c r="D33">
-        <v>0.14670518581151271</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.1467051858115127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1661,10 +1524,10 @@
         <v>766</v>
       </c>
       <c r="D34">
-        <v>0.13839430090100829</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.1383943009010083</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1675,10 +1538,10 @@
         <v>813</v>
       </c>
       <c r="D35">
-        <v>0.14688585722261069</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.1468858572226107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1689,10 +1552,10 @@
         <v>5382</v>
       </c>
       <c r="D36">
-        <v>0.97237353452901665</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.9723735345290166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1703,10 +1566,10 @@
         <v>757</v>
       </c>
       <c r="D37">
-        <v>0.13676825820112701</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.136768258201127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1717,10 +1580,10 @@
         <v>702</v>
       </c>
       <c r="D38">
-        <v>0.12683133059074131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.1268313305907413</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1731,10 +1594,10 @@
         <v>703</v>
       </c>
       <c r="D39">
-        <v>0.12701200200183921</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.1270120020018392</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1748,7 +1611,7 @@
         <v>0.1187011170913348</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1762,7 +1625,7 @@
         <v>0.1121969462918096</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1776,7 +1639,7 @@
         <v>0.1215918596689016</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1790,7 +1653,7 @@
         <v>0.1197851455579223</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1804,7 +1667,7 @@
         <v>0.1163523887470618</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1818,7 +1681,7 @@
         <v>0.108944860892047</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1832,7 +1695,7 @@
         <v>0.1078608324254595</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1843,10 +1706,10 @@
         <v>4620</v>
       </c>
       <c r="D47">
-        <v>0.83470191927240012</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.8347019192724001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1860,7 +1723,7 @@
         <v>0.1084028466587533</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1874,7 +1737,7 @@
         <v>0.1176170886247473</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1885,10 +1748,10 @@
         <v>568</v>
       </c>
       <c r="D50">
-        <v>0.10262136150361981</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.1026213615036198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1899,10 +1762,10 @@
         <v>512</v>
       </c>
       <c r="D51">
-        <v>9.2503762482136112E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.09250376248213611</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1913,10 +1776,10 @@
         <v>508</v>
       </c>
       <c r="D52">
-        <v>9.1781076837744432E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.09178107683774443</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1927,10 +1790,10 @@
         <v>550</v>
       </c>
       <c r="D53">
-        <v>9.9369276103857151E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.09936927610385715</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1941,10 +1804,10 @@
         <v>498</v>
       </c>
       <c r="D54">
-        <v>8.9974362726765206E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.08997436272676521</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1955,10 +1818,10 @@
         <v>474</v>
       </c>
       <c r="D55">
-        <v>8.5638248860415073E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.08563824886041507</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1969,10 +1832,10 @@
         <v>465</v>
       </c>
       <c r="D56">
-        <v>8.4012206160533787E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.08401220616053379</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1983,10 +1846,10 @@
         <v>474</v>
       </c>
       <c r="D57">
-        <v>8.5638248860415073E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.08563824886041507</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1997,10 +1860,10 @@
         <v>4033</v>
       </c>
       <c r="D58">
-        <v>0.72864780095791981</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.7286478009579198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2011,10 +1874,10 @@
         <v>426</v>
       </c>
       <c r="D59">
-        <v>7.696602112771482E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.07696602112771482</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2025,10 +1888,10 @@
         <v>384</v>
       </c>
       <c r="D60">
-        <v>6.9377821861602088E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.06937782186160209</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2039,10 +1902,10 @@
         <v>428</v>
       </c>
       <c r="D61">
-        <v>7.732736394991066E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.07732736394991066</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2053,10 +1916,10 @@
         <v>385</v>
       </c>
       <c r="D62">
-        <v>6.9558493272700014E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.06955849327270001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2067,10 +1930,10 @@
         <v>367</v>
       </c>
       <c r="D63">
-        <v>6.6306407872937415E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.06630640787293741</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2081,10 +1944,10 @@
         <v>330</v>
       </c>
       <c r="D64">
-        <v>5.9621565662314288E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.05962156566231429</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2095,10 +1958,10 @@
         <v>278</v>
       </c>
       <c r="D65">
-        <v>5.0226652285222342E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.05022665228522234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2109,10 +1972,10 @@
         <v>278</v>
       </c>
       <c r="D66">
-        <v>5.0226652285222342E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.05022665228522234</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2123,10 +1986,10 @@
         <v>227</v>
       </c>
       <c r="D67">
-        <v>4.1012410319228317E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.04101241031922832</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2137,10 +2000,10 @@
         <v>215</v>
       </c>
       <c r="D68">
-        <v>3.884435338605325E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.03884435338605325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2151,10 +2014,10 @@
         <v>3580</v>
       </c>
       <c r="D69">
-        <v>0.64680365173056109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.6468036517305611</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2165,10 +2028,10 @@
         <v>245</v>
       </c>
       <c r="D70">
-        <v>4.4264495718990923E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.04426449571899092</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2179,10 +2042,10 @@
         <v>205</v>
       </c>
       <c r="D71">
-        <v>3.703763927507403E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.03703763927507403</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2193,10 +2056,10 @@
         <v>203</v>
       </c>
       <c r="D72">
-        <v>3.6676296452878183E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.03667629645287818</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2207,10 +2070,10 @@
         <v>190</v>
       </c>
       <c r="D73">
-        <v>3.4327568108605197E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.0343275681086052</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2221,10 +2084,10 @@
         <v>149</v>
       </c>
       <c r="D74">
-        <v>2.6920040253590391E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.02692004025359039</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2235,10 +2098,10 @@
         <v>146</v>
       </c>
       <c r="D75">
-        <v>2.6378026020296621E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.02637802602029662</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2249,10 +2112,10 @@
         <v>151</v>
       </c>
       <c r="D76">
-        <v>2.7281383075786231E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.02728138307578623</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2263,10 +2126,10 @@
         <v>123</v>
       </c>
       <c r="D77">
-        <v>2.2222583565044422E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.02222258356504442</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2277,10 +2140,10 @@
         <v>98</v>
       </c>
       <c r="D78">
-        <v>1.7705798287596369E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.01770579828759637</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2291,10 +2154,10 @@
         <v>88</v>
       </c>
       <c r="D79">
-        <v>1.5899084176617149E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.01589908417661715</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2305,10 +2168,10 @@
         <v>3210</v>
       </c>
       <c r="D80">
-        <v>0.57995522962432988</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.5799552296243299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2319,10 +2182,10 @@
         <v>91</v>
       </c>
       <c r="D81">
-        <v>1.6441098409910909E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.01644109840991091</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2333,10 +2196,10 @@
         <v>65</v>
       </c>
       <c r="D82">
-        <v>1.1743641721364941E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.01174364172136494</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2347,10 +2210,10 @@
         <v>53</v>
       </c>
       <c r="D83">
-        <v>9.5755847881898726E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.009575584788189873</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2361,10 +2224,10 @@
         <v>49</v>
       </c>
       <c r="D84">
-        <v>8.8528991437981826E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.008852899143798183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2375,10 +2238,10 @@
         <v>53</v>
       </c>
       <c r="D85">
-        <v>9.5755847881898726E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.009575584788189873</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2389,10 +2252,10 @@
         <v>34</v>
       </c>
       <c r="D86">
-        <v>6.142827977329352E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.006142827977329352</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2403,10 +2266,10 @@
         <v>38</v>
       </c>
       <c r="D87">
-        <v>6.8655136217210403E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.00686551362172104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2417,10 +2280,10 @@
         <v>15</v>
       </c>
       <c r="D88">
-        <v>2.710071166468831E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.002710071166468831</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2431,10 +2294,10 @@
         <v>15</v>
       </c>
       <c r="D89">
-        <v>2.710071166468831E-3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.002710071166468831</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2445,10 +2308,10 @@
         <v>13</v>
       </c>
       <c r="D90">
-        <v>2.3487283442729869E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.002348728344272987</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2459,10 +2322,10 @@
         <v>2902</v>
       </c>
       <c r="D91">
-        <v>0.52430843500616997</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.52430843500617</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2473,10 +2336,10 @@
         <v>5</v>
       </c>
       <c r="D92">
-        <v>9.0335705548961055E-4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.75">
+        <v>0.0009033570554896106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2487,682 +2350,10 @@
         <v>393486</v>
       </c>
       <c r="D93">
-        <v>71.091670867276974</v>
+        <v>71.09167086727697</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="1" max="1" width="27.40625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="B1" s="1"/>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A4" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4">
-        <v>13.516783630675571</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>11827</v>
-      </c>
-      <c r="F4">
-        <v>159863</v>
-      </c>
-      <c r="G4">
-        <v>18.59869623507581</v>
-      </c>
-      <c r="H4">
-        <v>345.91150164462289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5">
-        <v>14.535657264502399</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>3758</v>
-      </c>
-      <c r="F5">
-        <v>54625</v>
-      </c>
-      <c r="G5">
-        <v>19.158798188406919</v>
-      </c>
-      <c r="H5">
-        <v>367.05954802410412</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6">
-        <v>12.315184877440799</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>144420</v>
-      </c>
-      <c r="F6">
-        <v>1778559</v>
-      </c>
-      <c r="G6">
-        <v>17.778788537831051</v>
-      </c>
-      <c r="H6">
-        <v>316.08532187291291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7">
-        <v>10.59863794507365</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>13509</v>
-      </c>
-      <c r="F7">
-        <v>143177</v>
-      </c>
-      <c r="G7">
-        <v>16.00939402319139</v>
-      </c>
-      <c r="H7">
-        <v>256.30069698979611</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8">
-        <v>14.792317761596991</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>24446</v>
-      </c>
-      <c r="F8">
-        <v>361613</v>
-      </c>
-      <c r="G8">
-        <v>19.17977794639566</v>
-      </c>
-      <c r="H8">
-        <v>367.86388207304537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9">
-        <v>13.457837347501711</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>54017</v>
-      </c>
-      <c r="F9">
-        <v>726952</v>
-      </c>
-      <c r="G9">
-        <v>18.524484158532911</v>
-      </c>
-      <c r="H9">
-        <v>343.15651333973682</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10">
-        <v>12.46502549495823</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>78643</v>
-      </c>
-      <c r="F10">
-        <v>980287</v>
-      </c>
-      <c r="G10">
-        <v>17.955236306691191</v>
-      </c>
-      <c r="H10">
-        <v>322.39051082912141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11">
-        <v>11.898286727057901</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>10156</v>
-      </c>
-      <c r="F11">
-        <v>120839</v>
-      </c>
-      <c r="G11">
-        <v>17.305548869736011</v>
-      </c>
-      <c r="H11">
-        <v>299.48202168282131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12">
-        <v>12.12653473117677</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>17837</v>
-      </c>
-      <c r="F12">
-        <v>216301</v>
-      </c>
-      <c r="G12">
-        <v>17.703371535074549</v>
-      </c>
-      <c r="H12">
-        <v>313.40936370888772</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13">
-        <v>12.690593665446441</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>12566</v>
-      </c>
-      <c r="F13">
-        <v>159470</v>
-      </c>
-      <c r="G13">
-        <v>17.92163386690267</v>
-      </c>
-      <c r="H13">
-        <v>321.18496045931261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14">
-        <v>12.430762614678899</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>13952</v>
-      </c>
-      <c r="F14">
-        <v>173434</v>
-      </c>
-      <c r="G14">
-        <v>17.929886617355709</v>
-      </c>
-      <c r="H14">
-        <v>321.48083411123139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15">
-        <v>12.70055132255467</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>16143</v>
-      </c>
-      <c r="F15">
-        <v>205025</v>
-      </c>
-      <c r="G15">
-        <v>17.843147844035059</v>
-      </c>
-      <c r="H15">
-        <v>318.37792498409289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16">
-        <v>12.261177753544169</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>7336</v>
-      </c>
-      <c r="F16">
-        <v>89948</v>
-      </c>
-      <c r="G16">
-        <v>17.783633259791831</v>
-      </c>
-      <c r="H16">
-        <v>316.25761191877427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17">
-        <v>14.3803328290469</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17">
-        <v>3305</v>
-      </c>
-      <c r="F17">
-        <v>47527</v>
-      </c>
-      <c r="G17">
-        <v>18.709232691473971</v>
-      </c>
-      <c r="H17">
-        <v>350.03538790371829</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A18" s="3"/>
-      <c r="B18" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18">
-        <v>3.2238805970149249</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>67</v>
-      </c>
-      <c r="F18">
-        <v>216</v>
-      </c>
-      <c r="G18">
-        <v>8.8022395489123113</v>
-      </c>
-      <c r="H18">
-        <v>77.479421076436012</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A19" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>13.225821389705709</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>43189</v>
-      </c>
-      <c r="F19">
-        <v>571210</v>
-      </c>
-      <c r="G19">
-        <v>18.415340614166521</v>
-      </c>
-      <c r="H19">
-        <v>339.12476993577081</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A20" s="3"/>
-      <c r="B20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>12.17159464456924</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>116816</v>
-      </c>
-      <c r="F20">
-        <v>1421837</v>
-      </c>
-      <c r="G20">
-        <v>17.669215249491099</v>
-      </c>
-      <c r="H20">
-        <v>312.20116753284867</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A21" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21">
-        <v>12.90116847310761</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <v>68551</v>
-      </c>
-      <c r="F21">
-        <v>884388</v>
-      </c>
-      <c r="G21">
-        <v>18.167714254448679</v>
-      </c>
-      <c r="H21">
-        <v>330.06584123129772</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A22" s="3"/>
-      <c r="B22" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22">
-        <v>11.9276766306055</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <v>79587</v>
-      </c>
-      <c r="F22">
-        <v>949288</v>
-      </c>
-      <c r="G22">
-        <v>17.521208829891819</v>
-      </c>
-      <c r="H22">
-        <v>306.99275886067909</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A23" s="3"/>
-      <c r="B23" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23">
-        <v>13.429763208898629</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <v>11867</v>
-      </c>
-      <c r="F23">
-        <v>159371</v>
-      </c>
-      <c r="G23">
-        <v>18.4644651859352</v>
-      </c>
-      <c r="H23">
-        <v>340.93647460261309</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A24" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24">
-        <v>11.627945261858221</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>19438</v>
-      </c>
-      <c r="F24">
-        <v>226024</v>
-      </c>
-      <c r="G24">
-        <v>17.261998913192979</v>
-      </c>
-      <c r="H24">
-        <v>297.97660647907549</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A25" s="3"/>
-      <c r="B25" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25">
-        <v>12.656084090504191</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>28065</v>
-      </c>
-      <c r="F25">
-        <v>355193</v>
-      </c>
-      <c r="G25">
-        <v>17.98199891300769</v>
-      </c>
-      <c r="H25">
-        <v>323.35228490740968</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A26" s="3"/>
-      <c r="B26" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26">
-        <v>12.49032199298629</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>87828</v>
-      </c>
-      <c r="F26">
-        <v>1097000</v>
-      </c>
-      <c r="G26">
-        <v>17.938855305569909</v>
-      </c>
-      <c r="H26">
-        <v>321.80252967417351</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A27" s="3"/>
-      <c r="B27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27">
-        <v>12.727588540491769</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <v>22165</v>
-      </c>
-      <c r="F27">
-        <v>282107</v>
-      </c>
-      <c r="G27">
-        <v>17.99293157100913</v>
-      </c>
-      <c r="H27">
-        <v>323.74558651901708</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A28" s="3"/>
-      <c r="B28" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28">
-        <v>13.042247907532881</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>2509</v>
-      </c>
-      <c r="F28">
-        <v>32723</v>
-      </c>
-      <c r="G28">
-        <v>18.182066125641771</v>
-      </c>
-      <c r="H28">
-        <v>330.58752859720988</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="A19:A20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Report_python.xlsx
+++ b/Report_python.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hossenbuxs\Desktop\JOB\vinted\vinted\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data_daily" sheetId="1" r:id="rId1"/>
     <sheet name="data_group_unsold" sheetId="2" r:id="rId2"/>
+    <sheet name="Regression_results" sheetId="3" r:id="rId3"/>
+    <sheet name="summary_stats" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
   <si>
     <t>number of additions</t>
   </si>
@@ -309,16 +316,181 @@
   </si>
   <si>
     <t>nan</t>
+  </si>
+  <si>
+    <t>coef</t>
+  </si>
+  <si>
+    <t>std err</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>P&gt;|t|</t>
+  </si>
+  <si>
+    <t>[0.025</t>
+  </si>
+  <si>
+    <t>0.975]</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>C(country_code)[T.ES]</t>
+  </si>
+  <si>
+    <t>C(country_code)[T.FR]</t>
+  </si>
+  <si>
+    <t>C(listing_platform)[T.iphone]</t>
+  </si>
+  <si>
+    <t>C(listing_platform)[T.web (desktop or other)]</t>
+  </si>
+  <si>
+    <t>C(brand_is_verified)[T.True]</t>
+  </si>
+  <si>
+    <t>catalog_code_1[T.MENS]</t>
+  </si>
+  <si>
+    <t>catalog_code_1[T.WOMEN_ROOT]</t>
+  </si>
+  <si>
+    <t>C(listing_quality_string)[T.Long description, More than 2 photos]</t>
+  </si>
+  <si>
+    <t>C(listing_quality_string)[T.More than 2 photos]</t>
+  </si>
+  <si>
+    <t>C(status)[T.b. New]</t>
+  </si>
+  <si>
+    <t>C(status)[T.c. Mint]</t>
+  </si>
+  <si>
+    <t>C(status)[T.d. Very good]</t>
+  </si>
+  <si>
+    <t>C(status)[T.e. Good]</t>
+  </si>
+  <si>
+    <t>window_items_sold</t>
+  </si>
+  <si>
+    <t>listing_price_eur_fixed</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>country_code</t>
+  </si>
+  <si>
+    <t>listing_quality_string</t>
+  </si>
+  <si>
+    <t>listings_in_first_7days_detailed</t>
+  </si>
+  <si>
+    <t>brand_is_verified</t>
+  </si>
+  <si>
+    <t>listing_platform</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>Long description</t>
+  </si>
+  <si>
+    <t>Long description, More than 2 photos</t>
+  </si>
+  <si>
+    <t>More than 2 photos</t>
+  </si>
+  <si>
+    <t>a. Didn't list over first 7d</t>
+  </si>
+  <si>
+    <t>b. 1 listing</t>
+  </si>
+  <si>
+    <t>c. 2-5 listings</t>
+  </si>
+  <si>
+    <t>d. 6-10 listings</t>
+  </si>
+  <si>
+    <t>e. 11-20 listings</t>
+  </si>
+  <si>
+    <t>f. 21-50 listings</t>
+  </si>
+  <si>
+    <t>g. 51-100 listings</t>
+  </si>
+  <si>
+    <t>h. 101-500 listings</t>
+  </si>
+  <si>
+    <t>i. 500+ listings</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>web (desktop or other)</t>
+  </si>
+  <si>
+    <t>a. New with tags</t>
+  </si>
+  <si>
+    <t>b. New</t>
+  </si>
+  <si>
+    <t>c. Mint</t>
+  </si>
+  <si>
+    <t>d. Very good</t>
+  </si>
+  <si>
+    <t>e. Good</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -378,12 +550,34 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -430,7 +624,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -462,9 +656,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,6 +691,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -671,14 +867,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -689,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" s="2">
         <v>43677</v>
       </c>
@@ -700,7 +896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="2">
         <v>43678</v>
       </c>
@@ -711,7 +907,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" s="2">
         <v>43679</v>
       </c>
@@ -722,7 +918,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" s="2">
         <v>43680</v>
       </c>
@@ -733,7 +929,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" s="2">
         <v>43681</v>
       </c>
@@ -744,7 +940,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" s="2">
         <v>43682</v>
       </c>
@@ -755,7 +951,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" s="2">
         <v>43683</v>
       </c>
@@ -766,7 +962,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" s="2">
         <v>43684</v>
       </c>
@@ -777,7 +973,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" s="2">
         <v>43685</v>
       </c>
@@ -788,7 +984,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A11" s="2">
         <v>43686</v>
       </c>
@@ -799,7 +995,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A12" s="2">
         <v>43687</v>
       </c>
@@ -810,7 +1006,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A13" s="2">
         <v>43688</v>
       </c>
@@ -821,7 +1017,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A14" s="2">
         <v>43689</v>
       </c>
@@ -832,7 +1028,7 @@
         <v>3189</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A15" s="2">
         <v>43690</v>
       </c>
@@ -843,7 +1039,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A16" s="2">
         <v>43691</v>
       </c>
@@ -854,7 +1050,7 @@
         <v>3007</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A17" s="2">
         <v>43692</v>
       </c>
@@ -865,7 +1061,7 @@
         <v>3711</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A18" s="2">
         <v>43693</v>
       </c>
@@ -876,7 +1072,7 @@
         <v>3330</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A19" s="2">
         <v>43694</v>
       </c>
@@ -887,7 +1083,7 @@
         <v>3456</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A20" s="2">
         <v>43695</v>
       </c>
@@ -898,7 +1094,7 @@
         <v>4484</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A21" s="2">
         <v>43696</v>
       </c>
@@ -909,7 +1105,7 @@
         <v>4308</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A22" s="2">
         <v>43697</v>
       </c>
@@ -920,7 +1116,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A23" s="2">
         <v>43698</v>
       </c>
@@ -931,7 +1127,7 @@
         <v>4546</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A24" s="2">
         <v>43699</v>
       </c>
@@ -942,7 +1138,7 @@
         <v>4328</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A25" s="2">
         <v>43700</v>
       </c>
@@ -953,7 +1149,7 @@
         <v>3824</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A26" s="2">
         <v>43701</v>
       </c>
@@ -964,7 +1160,7 @@
         <v>3555</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A27" s="2">
         <v>43702</v>
       </c>
@@ -975,7 +1171,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A28" s="2">
         <v>43703</v>
       </c>
@@ -986,7 +1182,7 @@
         <v>4623</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A29" s="2">
         <v>43704</v>
       </c>
@@ -997,7 +1193,7 @@
         <v>4240</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A30" s="2">
         <v>43705</v>
       </c>
@@ -1008,7 +1204,7 @@
         <v>4919</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A31" s="2">
         <v>43706</v>
       </c>
@@ -1019,7 +1215,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A32" s="2">
         <v>43707</v>
       </c>
@@ -1030,7 +1226,7 @@
         <v>3733</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A33" s="2">
         <v>43708</v>
       </c>
@@ -1047,14 +1243,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1065,7 +1261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1076,10 +1272,10 @@
         <v>50159</v>
       </c>
       <c r="D2">
-        <v>9.062297309260675</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>9.0622973092606749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1090,10 +1286,10 @@
         <v>13488</v>
       </c>
       <c r="D3">
-        <v>2.436895992888773</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>2.4368959928887728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1107,7 +1303,7 @@
         <v>0.5022665228522234</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1118,10 +1314,10 @@
         <v>2406</v>
       </c>
       <c r="D5">
-        <v>0.4346954151016005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.43469541510160048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1132,10 +1328,10 @@
         <v>2288</v>
       </c>
       <c r="D6">
-        <v>0.4133761885920457</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.41337618859204572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1146,10 +1342,10 @@
         <v>2179</v>
       </c>
       <c r="D7">
-        <v>0.3936830047823723</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.39368300478237228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1160,10 +1356,10 @@
         <v>1955</v>
       </c>
       <c r="D8">
-        <v>0.3532126086964377</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.35321260869643772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1177,7 +1373,7 @@
         <v>0.3235824972763785</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1188,10 +1384,10 @@
         <v>1773</v>
       </c>
       <c r="D10">
-        <v>0.3203304118766159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.32033041187661587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1202,10 +1398,10 @@
         <v>1628</v>
       </c>
       <c r="D11">
-        <v>0.2941330572674172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.29413305726741718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1219,7 +1415,7 @@
         <v>0.2836541154237377</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1230,10 +1426,10 @@
         <v>1530</v>
       </c>
       <c r="D13">
-        <v>0.2764272589798208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.27642725897982079</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1247,7 +1443,7 @@
         <v>1.612311672637857</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1258,10 +1454,10 @@
         <v>1454</v>
       </c>
       <c r="D15">
-        <v>0.2626962317363787</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.26269623173637868</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1272,10 +1468,10 @@
         <v>1483</v>
       </c>
       <c r="D16">
-        <v>0.2679357026582185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.26793570265821848</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1289,7 +1485,7 @@
         <v>0.2247552354058151</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1303,7 +1499,7 @@
         <v>0.2184317360173878</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1317,7 +1513,7 @@
         <v>0.2043393659517499</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1331,7 +1527,7 @@
         <v>0.1978351951522247</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1342,10 +1538,10 @@
         <v>1089</v>
       </c>
       <c r="D21">
-        <v>0.1967511666856372</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.19675116668563719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1356,10 +1552,10 @@
         <v>1054</v>
       </c>
       <c r="D22">
-        <v>0.1904276672972099</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.19042766729720989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1370,10 +1566,10 @@
         <v>982</v>
       </c>
       <c r="D23">
-        <v>0.1774193256981595</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.17741932569815949</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1384,10 +1580,10 @@
         <v>919</v>
       </c>
       <c r="D24">
-        <v>0.1660370267989904</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.16603702679899041</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1401,7 +1597,7 @@
         <v>1.149973531638274</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1415,7 +1611,7 @@
         <v>0.1781420113425512</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1429,7 +1625,7 @@
         <v>0.1651336697435008</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1440,10 +1636,10 @@
         <v>890</v>
       </c>
       <c r="D28">
-        <v>0.1607975558771507</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.16079755587715069</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1454,10 +1650,10 @@
         <v>852</v>
       </c>
       <c r="D29">
-        <v>0.1539320422554296</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.15393204225542961</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1468,10 +1664,10 @@
         <v>856</v>
       </c>
       <c r="D30">
-        <v>0.1546547278998213</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.15465472789982129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1482,10 +1678,10 @@
         <v>847</v>
       </c>
       <c r="D31">
-        <v>0.15302868519994</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.15302868519994001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1496,10 +1692,10 @@
         <v>779</v>
       </c>
       <c r="D32">
-        <v>0.1407430292452813</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.14074302924528129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1510,10 +1706,10 @@
         <v>812</v>
       </c>
       <c r="D33">
-        <v>0.1467051858115127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.14670518581151271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1524,10 +1720,10 @@
         <v>766</v>
       </c>
       <c r="D34">
-        <v>0.1383943009010083</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.13839430090100829</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1538,10 +1734,10 @@
         <v>813</v>
       </c>
       <c r="D35">
-        <v>0.1468858572226107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.14688585722261069</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1552,10 +1748,10 @@
         <v>5382</v>
       </c>
       <c r="D36">
-        <v>0.9723735345290166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.97237353452901665</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1566,10 +1762,10 @@
         <v>757</v>
       </c>
       <c r="D37">
-        <v>0.136768258201127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.13676825820112701</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1580,10 +1776,10 @@
         <v>702</v>
       </c>
       <c r="D38">
-        <v>0.1268313305907413</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.12683133059074131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1594,10 +1790,10 @@
         <v>703</v>
       </c>
       <c r="D39">
-        <v>0.1270120020018392</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.12701200200183921</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1611,7 +1807,7 @@
         <v>0.1187011170913348</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1625,7 +1821,7 @@
         <v>0.1121969462918096</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1639,7 +1835,7 @@
         <v>0.1215918596689016</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1653,7 +1849,7 @@
         <v>0.1197851455579223</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1667,7 +1863,7 @@
         <v>0.1163523887470618</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1681,7 +1877,7 @@
         <v>0.108944860892047</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1695,7 +1891,7 @@
         <v>0.1078608324254595</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1706,10 +1902,10 @@
         <v>4620</v>
       </c>
       <c r="D47">
-        <v>0.8347019192724001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.83470191927240012</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1723,7 +1919,7 @@
         <v>0.1084028466587533</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1737,7 +1933,7 @@
         <v>0.1176170886247473</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1748,10 +1944,10 @@
         <v>568</v>
       </c>
       <c r="D50">
-        <v>0.1026213615036198</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.10262136150361981</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1762,10 +1958,10 @@
         <v>512</v>
       </c>
       <c r="D51">
-        <v>0.09250376248213611</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>9.2503762482136112E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1776,10 +1972,10 @@
         <v>508</v>
       </c>
       <c r="D52">
-        <v>0.09178107683774443</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>9.1781076837744432E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1790,10 +1986,10 @@
         <v>550</v>
       </c>
       <c r="D53">
-        <v>0.09936927610385715</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>9.9369276103857151E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1804,10 +2000,10 @@
         <v>498</v>
       </c>
       <c r="D54">
-        <v>0.08997436272676521</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>8.9974362726765206E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1818,10 +2014,10 @@
         <v>474</v>
       </c>
       <c r="D55">
-        <v>0.08563824886041507</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>8.5638248860415073E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1832,10 +2028,10 @@
         <v>465</v>
       </c>
       <c r="D56">
-        <v>0.08401220616053379</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>8.4012206160533787E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1846,10 +2042,10 @@
         <v>474</v>
       </c>
       <c r="D57">
-        <v>0.08563824886041507</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>8.5638248860415073E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1860,10 +2056,10 @@
         <v>4033</v>
       </c>
       <c r="D58">
-        <v>0.7286478009579198</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.72864780095791981</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1874,10 +2070,10 @@
         <v>426</v>
       </c>
       <c r="D59">
-        <v>0.07696602112771482</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>7.696602112771482E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1888,10 +2084,10 @@
         <v>384</v>
       </c>
       <c r="D60">
-        <v>0.06937782186160209</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>6.9377821861602088E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1902,10 +2098,10 @@
         <v>428</v>
       </c>
       <c r="D61">
-        <v>0.07732736394991066</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>7.732736394991066E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1916,10 +2112,10 @@
         <v>385</v>
       </c>
       <c r="D62">
-        <v>0.06955849327270001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>6.9558493272700014E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1930,10 +2126,10 @@
         <v>367</v>
       </c>
       <c r="D63">
-        <v>0.06630640787293741</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>6.6306407872937415E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1944,10 +2140,10 @@
         <v>330</v>
       </c>
       <c r="D64">
-        <v>0.05962156566231429</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>5.9621565662314288E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1958,10 +2154,10 @@
         <v>278</v>
       </c>
       <c r="D65">
-        <v>0.05022665228522234</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>5.0226652285222342E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1972,10 +2168,10 @@
         <v>278</v>
       </c>
       <c r="D66">
-        <v>0.05022665228522234</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>5.0226652285222342E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1986,10 +2182,10 @@
         <v>227</v>
       </c>
       <c r="D67">
-        <v>0.04101241031922832</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>4.1012410319228317E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2000,10 +2196,10 @@
         <v>215</v>
       </c>
       <c r="D68">
-        <v>0.03884435338605325</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>3.884435338605325E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2014,10 +2210,10 @@
         <v>3580</v>
       </c>
       <c r="D69">
-        <v>0.6468036517305611</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.64680365173056109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2028,10 +2224,10 @@
         <v>245</v>
       </c>
       <c r="D70">
-        <v>0.04426449571899092</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>4.4264495718990923E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2042,10 +2238,10 @@
         <v>205</v>
       </c>
       <c r="D71">
-        <v>0.03703763927507403</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>3.703763927507403E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2056,10 +2252,10 @@
         <v>203</v>
       </c>
       <c r="D72">
-        <v>0.03667629645287818</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>3.6676296452878183E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2070,10 +2266,10 @@
         <v>190</v>
       </c>
       <c r="D73">
-        <v>0.0343275681086052</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>3.4327568108605197E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2084,10 +2280,10 @@
         <v>149</v>
       </c>
       <c r="D74">
-        <v>0.02692004025359039</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>2.6920040253590391E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2098,10 +2294,10 @@
         <v>146</v>
       </c>
       <c r="D75">
-        <v>0.02637802602029662</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>2.6378026020296621E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2112,10 +2308,10 @@
         <v>151</v>
       </c>
       <c r="D76">
-        <v>0.02728138307578623</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>2.7281383075786231E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2126,10 +2322,10 @@
         <v>123</v>
       </c>
       <c r="D77">
-        <v>0.02222258356504442</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>2.2222583565044422E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2140,10 +2336,10 @@
         <v>98</v>
       </c>
       <c r="D78">
-        <v>0.01770579828759637</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>1.7705798287596369E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2154,10 +2350,10 @@
         <v>88</v>
       </c>
       <c r="D79">
-        <v>0.01589908417661715</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>1.5899084176617149E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2168,10 +2364,10 @@
         <v>3210</v>
       </c>
       <c r="D80">
-        <v>0.5799552296243299</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.57995522962432988</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2182,10 +2378,10 @@
         <v>91</v>
       </c>
       <c r="D81">
-        <v>0.01644109840991091</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>1.6441098409910909E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2196,10 +2392,10 @@
         <v>65</v>
       </c>
       <c r="D82">
-        <v>0.01174364172136494</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>1.1743641721364941E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2210,10 +2406,10 @@
         <v>53</v>
       </c>
       <c r="D83">
-        <v>0.009575584788189873</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>9.5755847881898726E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2224,10 +2420,10 @@
         <v>49</v>
       </c>
       <c r="D84">
-        <v>0.008852899143798183</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>8.8528991437981826E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2238,10 +2434,10 @@
         <v>53</v>
       </c>
       <c r="D85">
-        <v>0.009575584788189873</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>9.5755847881898726E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2252,10 +2448,10 @@
         <v>34</v>
       </c>
       <c r="D86">
-        <v>0.006142827977329352</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>6.142827977329352E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2266,10 +2462,10 @@
         <v>38</v>
       </c>
       <c r="D87">
-        <v>0.00686551362172104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>6.8655136217210403E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2280,10 +2476,10 @@
         <v>15</v>
       </c>
       <c r="D88">
-        <v>0.002710071166468831</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>2.710071166468831E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2294,10 +2490,10 @@
         <v>15</v>
       </c>
       <c r="D89">
-        <v>0.002710071166468831</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>2.710071166468831E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2308,10 +2504,10 @@
         <v>13</v>
       </c>
       <c r="D90">
-        <v>0.002348728344272987</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>2.3487283442729869E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2322,10 +2518,10 @@
         <v>2902</v>
       </c>
       <c r="D91">
-        <v>0.52430843500617</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.52430843500616997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2336,10 +2532,10 @@
         <v>5</v>
       </c>
       <c r="D92">
-        <v>0.0009033570554896106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>9.0335705548961055E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2350,10 +2546,968 @@
         <v>393486</v>
       </c>
       <c r="D93">
-        <v>71.09167086727697</v>
+        <v>71.091670867276974</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="55.40625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2">
+        <v>13.2224</v>
+      </c>
+      <c r="C2">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="D2">
+        <v>36.872999999999998</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>12.52</v>
+      </c>
+      <c r="G2">
+        <v>13.925000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3">
+        <v>1.4188000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.45</v>
+      </c>
+      <c r="D3">
+        <v>3.1520000000000001</v>
+      </c>
+      <c r="E3">
+        <v>2E-3</v>
+      </c>
+      <c r="F3">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="G3">
+        <v>2.3010000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4">
+        <v>-1.9323999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.24</v>
+      </c>
+      <c r="D4">
+        <v>-8.0399999999999991</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>-2.403</v>
+      </c>
+      <c r="G4">
+        <v>-1.4610000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5">
+        <v>-1.2730999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.128</v>
+      </c>
+      <c r="D5">
+        <v>-9.968</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>-1.5229999999999999</v>
+      </c>
+      <c r="G5">
+        <v>-1.0229999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6">
+        <v>0.54459999999999997</v>
+      </c>
+      <c r="C6">
+        <v>0.247</v>
+      </c>
+      <c r="D6">
+        <v>2.206</v>
+      </c>
+      <c r="E6">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F6">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="G6">
+        <v>1.0289999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7">
+        <v>-1.9158999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D7">
+        <v>-13.337</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>-2.1970000000000001</v>
+      </c>
+      <c r="G7">
+        <v>-1.6339999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8">
+        <v>0.53290000000000004</v>
+      </c>
+      <c r="C8">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="D8">
+        <v>2.5569999999999999</v>
+      </c>
+      <c r="E8">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.124</v>
+      </c>
+      <c r="G8">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9">
+        <v>1.2222999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="D9">
+        <v>8.8789999999999996</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="G9">
+        <v>1.492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10">
+        <v>4.1501999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.2</v>
+      </c>
+      <c r="D10">
+        <v>20.786999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>3.7589999999999999</v>
+      </c>
+      <c r="G10">
+        <v>4.5419999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11">
+        <v>2.9984999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.183</v>
+      </c>
+      <c r="D11">
+        <v>16.364999999999998</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2.6389999999999998</v>
+      </c>
+      <c r="G11">
+        <v>3.3580000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12">
+        <v>0.71379999999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="D12">
+        <v>3.1469999999999998</v>
+      </c>
+      <c r="E12">
+        <v>2E-3</v>
+      </c>
+      <c r="F12">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="G12">
+        <v>1.1579999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13">
+        <v>0.38590000000000002</v>
+      </c>
+      <c r="C13">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="D13">
+        <v>1.9690000000000001</v>
+      </c>
+      <c r="E13">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F13">
+        <v>2E-3</v>
+      </c>
+      <c r="G13">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14">
+        <v>0.76790000000000003</v>
+      </c>
+      <c r="C14">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="D14">
+        <v>3.2349999999999999</v>
+      </c>
+      <c r="E14">
+        <v>1E-3</v>
+      </c>
+      <c r="F14">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="G14">
+        <v>1.2330000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15">
+        <v>0.79069999999999996</v>
+      </c>
+      <c r="C15">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="D15">
+        <v>1.653</v>
+      </c>
+      <c r="E15">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F15">
+        <v>-0.14699999999999999</v>
+      </c>
+      <c r="G15">
+        <v>1.728</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16">
+        <v>-6.7999999999999996E-3</v>
+      </c>
+      <c r="C16">
+        <v>1E-3</v>
+      </c>
+      <c r="D16">
+        <v>-6.8460000000000001</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>-9.0000000000000011E-3</v>
+      </c>
+      <c r="G16">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="C17">
+        <v>1E-3</v>
+      </c>
+      <c r="D17">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="E17">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F17">
+        <v>1E-3</v>
+      </c>
+      <c r="G17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B17">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2D4FDE91-D1A5-44F3-ADA5-BE7A97AF5633}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0.049</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2D4FDE91-D1A5-44F3-ADA5-BE7A97AF5633}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:B17</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="27.40625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="B1" s="1"/>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4">
+        <v>13.516783630675571</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>18.59869623507581</v>
+      </c>
+      <c r="F4">
+        <v>345.91150164462289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5">
+        <v>14.535657264502399</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>19.158798188406919</v>
+      </c>
+      <c r="F5">
+        <v>367.05954802410412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6">
+        <v>12.315184877440799</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>17.778788537831051</v>
+      </c>
+      <c r="F6">
+        <v>316.08532187291291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7">
+        <v>10.59863794507365</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>16.00939402319139</v>
+      </c>
+      <c r="F7">
+        <v>256.30069698979611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8">
+        <v>14.792317761596991</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>19.17977794639566</v>
+      </c>
+      <c r="F8">
+        <v>367.86388207304537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9">
+        <v>13.457837347501711</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>18.524484158532911</v>
+      </c>
+      <c r="F9">
+        <v>343.15651333973682</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10">
+        <v>12.46502549495823</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>17.955236306691191</v>
+      </c>
+      <c r="F10">
+        <v>322.39051082912141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11">
+        <v>11.898286727057901</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>17.305548869736011</v>
+      </c>
+      <c r="F11">
+        <v>299.48202168282131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12">
+        <v>12.12653473117677</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>17.703371535074549</v>
+      </c>
+      <c r="F12">
+        <v>313.40936370888772</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13">
+        <v>12.690593665446441</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>17.92163386690267</v>
+      </c>
+      <c r="F13">
+        <v>321.18496045931261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14">
+        <v>12.430762614678899</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>17.929886617355709</v>
+      </c>
+      <c r="F14">
+        <v>321.48083411123139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15">
+        <v>12.70055132255467</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>17.843147844035059</v>
+      </c>
+      <c r="F15">
+        <v>318.37792498409289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16">
+        <v>12.261177753544169</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>17.783633259791831</v>
+      </c>
+      <c r="F16">
+        <v>316.25761191877427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A17" s="3"/>
+      <c r="B17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17">
+        <v>14.3803328290469</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>18.709232691473971</v>
+      </c>
+      <c r="F17">
+        <v>350.03538790371829</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A18" s="3"/>
+      <c r="B18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18">
+        <v>3.2238805970149249</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>8.8022395489123113</v>
+      </c>
+      <c r="F18">
+        <v>77.479421076436012</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>13.225821389705709</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>18.415340614166521</v>
+      </c>
+      <c r="F19">
+        <v>339.12476993577081</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A20" s="3"/>
+      <c r="B20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>12.17159464456924</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>17.669215249491099</v>
+      </c>
+      <c r="F20">
+        <v>312.20116753284867</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21">
+        <v>12.90116847310761</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>18.167714254448679</v>
+      </c>
+      <c r="F21">
+        <v>330.06584123129772</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22">
+        <v>11.9276766306055</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>17.521208829891819</v>
+      </c>
+      <c r="F22">
+        <v>306.99275886067909</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A23" s="3"/>
+      <c r="B23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23">
+        <v>13.429763208898629</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>18.4644651859352</v>
+      </c>
+      <c r="F23">
+        <v>340.93647460261309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24">
+        <v>11.627945261858221</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>17.261998913192979</v>
+      </c>
+      <c r="F24">
+        <v>297.97660647907549</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A25" s="3"/>
+      <c r="B25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25">
+        <v>12.656084090504191</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>17.98199891300769</v>
+      </c>
+      <c r="F25">
+        <v>323.35228490740968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A26" s="3"/>
+      <c r="B26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26">
+        <v>12.49032199298629</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>17.938855305569909</v>
+      </c>
+      <c r="F26">
+        <v>321.80252967417351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A27" s="3"/>
+      <c r="B27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27">
+        <v>12.727588540491769</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>17.99293157100913</v>
+      </c>
+      <c r="F27">
+        <v>323.74558651901708</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A28" s="3"/>
+      <c r="B28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28">
+        <v>13.042247907532881</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>18.182066125641771</v>
+      </c>
+      <c r="F28">
+        <v>330.58752859720988</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="A19:A20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>